--- a/results-partial/HW_C019_120.xlsx
+++ b/results-partial/HW_C019_120.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,400 +445,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>27.8187978278512</v>
-      </c>
-      <c r="C2" t="n">
-        <v>28.59585236246075</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.73611257545605</v>
-      </c>
-      <c r="E2" t="n">
-        <v>28.58607711836811</v>
-      </c>
-      <c r="F2" t="n">
-        <v>28.73611257545605</v>
-      </c>
-      <c r="G2" t="n">
-        <v>27.92112035163495</v>
-      </c>
-      <c r="H2" t="n">
-        <v>28.57271655009389</v>
-      </c>
-      <c r="I2" t="n">
-        <v>28.29130492301525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.84397970724693</v>
+        <v>27.8187978278512</v>
       </c>
       <c r="C3" t="n">
-        <v>28.61059970997478</v>
+        <v>28.59585236246075</v>
       </c>
       <c r="D3" t="n">
-        <v>28.76985077859254</v>
+        <v>28.73611257545605</v>
       </c>
       <c r="E3" t="n">
-        <v>28.63132801564628</v>
+        <v>28.58607711836811</v>
       </c>
       <c r="F3" t="n">
-        <v>28.76981654815964</v>
+        <v>28.73611257545605</v>
       </c>
       <c r="G3" t="n">
-        <v>27.95229018017883</v>
+        <v>27.72963321027639</v>
       </c>
       <c r="H3" t="n">
-        <v>28.57640606645103</v>
+        <v>28.57271655009389</v>
       </c>
       <c r="I3" t="n">
-        <v>28.30109429625282</v>
+        <v>28.29130492301525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.80539676323497</v>
+        <v>27.84397970724693</v>
       </c>
       <c r="C4" t="n">
-        <v>28.6041813503382</v>
+        <v>28.61059970997478</v>
       </c>
       <c r="D4" t="n">
-        <v>28.72831932974533</v>
+        <v>28.76985077859254</v>
       </c>
       <c r="E4" t="n">
-        <v>28.59560359853203</v>
+        <v>28.63132801564628</v>
       </c>
       <c r="F4" t="n">
-        <v>28.72835566803706</v>
+        <v>28.76981654815964</v>
       </c>
       <c r="G4" t="n">
-        <v>27.90668328983546</v>
+        <v>27.75471648134064</v>
       </c>
       <c r="H4" t="n">
-        <v>28.54546697135685</v>
+        <v>28.57640606645103</v>
       </c>
       <c r="I4" t="n">
-        <v>28.27092826008262</v>
+        <v>28.30109429625282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.82297592306</v>
+        <v>27.80539676323497</v>
       </c>
       <c r="C5" t="n">
-        <v>28.5952949056132</v>
+        <v>28.6041813503382</v>
       </c>
       <c r="D5" t="n">
-        <v>28.73610103689192</v>
+        <v>28.72831932974533</v>
       </c>
       <c r="E5" t="n">
-        <v>28.58356982041105</v>
+        <v>28.59560359853203</v>
       </c>
       <c r="F5" t="n">
-        <v>28.73610103689192</v>
+        <v>28.72835566803706</v>
       </c>
       <c r="G5" t="n">
-        <v>27.92715368572596</v>
+        <v>27.70972845388448</v>
       </c>
       <c r="H5" t="n">
-        <v>28.56299240347486</v>
+        <v>28.54546697135685</v>
       </c>
       <c r="I5" t="n">
-        <v>28.2765251254109</v>
+        <v>28.27092826008262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.8354225098857</v>
+        <v>27.82297592306</v>
       </c>
       <c r="C6" t="n">
-        <v>28.62007322834258</v>
+        <v>28.5952949056132</v>
       </c>
       <c r="D6" t="n">
-        <v>28.76011401505867</v>
+        <v>28.73610103689192</v>
       </c>
       <c r="E6" t="n">
-        <v>28.62334983438167</v>
+        <v>28.58356982041105</v>
       </c>
       <c r="F6" t="n">
-        <v>28.76011401505867</v>
+        <v>28.73610103689192</v>
       </c>
       <c r="G6" t="n">
-        <v>27.93844144083007</v>
+        <v>27.73914791671061</v>
       </c>
       <c r="H6" t="n">
-        <v>28.58581980844269</v>
+        <v>28.56299240347486</v>
       </c>
       <c r="I6" t="n">
-        <v>28.29813157041581</v>
+        <v>28.2765251254109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.81040955362748</v>
+        <v>27.8354225098857</v>
       </c>
       <c r="C7" t="n">
-        <v>28.567039570738</v>
+        <v>28.62007322834258</v>
       </c>
       <c r="D7" t="n">
-        <v>28.69439119919405</v>
+        <v>28.76011401505867</v>
       </c>
       <c r="E7" t="n">
-        <v>28.57958623399112</v>
+        <v>28.62334983438167</v>
       </c>
       <c r="F7" t="n">
-        <v>28.69439119919405</v>
+        <v>28.76011401505867</v>
       </c>
       <c r="G7" t="n">
-        <v>27.91401248857079</v>
+        <v>27.76476856017787</v>
       </c>
       <c r="H7" t="n">
-        <v>28.56310078290642</v>
+        <v>28.58581980844269</v>
       </c>
       <c r="I7" t="n">
-        <v>28.2788236410168</v>
+        <v>28.29813157041581</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.86156351606635</v>
+        <v>27.81040955362748</v>
       </c>
       <c r="C8" t="n">
-        <v>28.61760015776781</v>
+        <v>28.567039570738</v>
       </c>
       <c r="D8" t="n">
-        <v>28.75518541304612</v>
+        <v>28.69439119919405</v>
       </c>
       <c r="E8" t="n">
-        <v>28.64361610904806</v>
+        <v>28.57958623399112</v>
       </c>
       <c r="F8" t="n">
-        <v>28.75519390103981</v>
+        <v>28.69439119919405</v>
       </c>
       <c r="G8" t="n">
-        <v>27.96822540347039</v>
+        <v>27.73349361498079</v>
       </c>
       <c r="H8" t="n">
-        <v>28.56819141537427</v>
+        <v>28.56310078290642</v>
       </c>
       <c r="I8" t="n">
-        <v>28.28139954648768</v>
+        <v>28.2788236410168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.80022297296503</v>
+        <v>27.86156351606635</v>
       </c>
       <c r="C9" t="n">
-        <v>28.58413644516107</v>
+        <v>28.61760015776781</v>
       </c>
       <c r="D9" t="n">
-        <v>28.73163287982322</v>
+        <v>28.75518541304612</v>
       </c>
       <c r="E9" t="n">
-        <v>28.58025691448628</v>
+        <v>28.64361610904806</v>
       </c>
       <c r="F9" t="n">
-        <v>28.73163287982322</v>
+        <v>28.75519390103981</v>
       </c>
       <c r="G9" t="n">
-        <v>27.90613231613253</v>
+        <v>27.75890589184559</v>
       </c>
       <c r="H9" t="n">
-        <v>28.55911095503167</v>
+        <v>28.56819141537427</v>
       </c>
       <c r="I9" t="n">
-        <v>28.26983917969464</v>
+        <v>28.28139954648768</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.85644969396837</v>
+        <v>27.80022297296503</v>
       </c>
       <c r="C10" t="n">
-        <v>28.63916878368094</v>
+        <v>28.58413644516107</v>
       </c>
       <c r="D10" t="n">
-        <v>28.76790154777076</v>
+        <v>28.73163287982322</v>
       </c>
       <c r="E10" t="n">
-        <v>28.63458121641287</v>
+        <v>28.58025691448628</v>
       </c>
       <c r="F10" t="n">
-        <v>28.76789794617145</v>
+        <v>28.73163287982322</v>
       </c>
       <c r="G10" t="n">
-        <v>27.96469915791441</v>
+        <v>27.74210625713257</v>
       </c>
       <c r="H10" t="n">
-        <v>28.57217316597544</v>
+        <v>28.55911095503167</v>
       </c>
       <c r="I10" t="n">
-        <v>28.28336136120372</v>
+        <v>28.26983917969464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27.85644969396837</v>
+      </c>
+      <c r="C11" t="n">
+        <v>28.63916878368094</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.76790154777076</v>
+      </c>
+      <c r="E11" t="n">
+        <v>28.63458121641287</v>
+      </c>
+      <c r="F11" t="n">
+        <v>28.76789794617145</v>
+      </c>
+      <c r="G11" t="n">
+        <v>27.76176085523096</v>
+      </c>
+      <c r="H11" t="n">
+        <v>28.57217316597544</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28.28336136120372</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>27.82439059371321</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>28.6182759441508</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>28.7524776106452</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>28.61924164871965</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>28.7524776106452</v>
       </c>
-      <c r="G11" t="n">
-        <v>27.92956359144271</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>27.7512348458223</v>
+      </c>
+      <c r="H12" t="n">
         <v>28.58951576450293</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>28.30663612781745</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.82796090616192</v>
-      </c>
-      <c r="C12" t="n">
-        <v>28.60522224582281</v>
-      </c>
-      <c r="D12" t="n">
-        <v>28.74320863862238</v>
-      </c>
-      <c r="E12" t="n">
-        <v>28.60772105099971</v>
-      </c>
-      <c r="F12" t="n">
-        <v>28.74320933804771</v>
-      </c>
-      <c r="G12" t="n">
-        <v>27.93283219057361</v>
-      </c>
-      <c r="H12" t="n">
-        <v>28.569549388361</v>
-      </c>
-      <c r="I12" t="n">
-        <v>28.28580440313977</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.777261339660889</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.9152477324604611</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.7797601448377875</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.9152484318857894</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1048712844116864</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.7415884821990808</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.4578434969778442</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9552936885896777</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.96301442896614</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9643986798879726</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9639855873374144</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9643986798879726</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9536843758273064</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9606310785395081</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9587816277317029</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.955421182582279</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9631163605704619</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9646143136398878</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9641560872832925</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9646140956979877</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9539808334484233</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.960661983978865</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9586951292528253</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9549881709774242</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9630885883424009</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9643182591808951</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9639767417741968</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9643184383255208</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9535351811943699</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9605123667750464</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9585052685298971</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.955265025546323</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9630230203042782</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9643712760689979</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9638898712324475</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9643712760689979</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9538420614936516</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9606536532667131</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9586364946220175</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9553279066698742</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9632067964208982</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9645646325572457</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9641749022041307</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9645646325572457</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.954011961053408</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9607754480188199</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9587130580271507</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9550574580426704</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9626400811507383</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9639089674731781</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9637897384618468</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9639089674731781</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9536547891321527</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9605359835889178</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9584716219480246</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9554726214338921</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9630187138247781</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9643440742278533</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.964211918467819</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9643441733439462</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9537286399374135</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9604830834191129</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9584797725247348</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.955060690100617</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9629466919893206</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9644665494616559</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9639054032401827</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9644665494616559</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9537960505871761</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9606256917915263</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9585653088370741</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9555942181827332</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9633508323547578</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9646339927115075</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9642905095133819</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9646339685852628</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9539878644583306</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9607212022131946</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9585580717375906</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9552477614853513</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9631220253546938</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9644132632683879</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9641142021695379</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9644132632683879</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9535943477282299</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9607964823243301</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.958789434988825</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,400 +1155,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>19.72936212069984</v>
-      </c>
-      <c r="C2" t="n">
-        <v>25.51543611326981</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25.49876465811207</v>
-      </c>
-      <c r="E2" t="n">
-        <v>25.82199414013738</v>
-      </c>
-      <c r="F2" t="n">
-        <v>25.49876465811207</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20.32977030178881</v>
-      </c>
-      <c r="H2" t="n">
-        <v>25.08057875576624</v>
-      </c>
-      <c r="I2" t="n">
-        <v>24.28720050310222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.74855385633919</v>
+        <v>19.72936212069984</v>
       </c>
       <c r="C3" t="n">
-        <v>25.5440194663537</v>
+        <v>25.51543611326981</v>
       </c>
       <c r="D3" t="n">
-        <v>25.53759645818334</v>
+        <v>25.49876465811207</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8621714747885</v>
+        <v>25.82199414013738</v>
       </c>
       <c r="F3" t="n">
-        <v>25.53759645818334</v>
+        <v>25.49876465811207</v>
       </c>
       <c r="G3" t="n">
-        <v>20.350902289367</v>
+        <v>22.70866483822338</v>
       </c>
       <c r="H3" t="n">
-        <v>25.0918863595157</v>
+        <v>25.08057875576624</v>
       </c>
       <c r="I3" t="n">
-        <v>24.2909054078498</v>
+        <v>24.28720050310222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.72051751290509</v>
+        <v>19.74855385633919</v>
       </c>
       <c r="C4" t="n">
-        <v>25.52498586330119</v>
+        <v>25.5440194663537</v>
       </c>
       <c r="D4" t="n">
-        <v>25.49689208214389</v>
+        <v>25.53759645818334</v>
       </c>
       <c r="E4" t="n">
-        <v>25.83463844446063</v>
+        <v>25.8621714747885</v>
       </c>
       <c r="F4" t="n">
-        <v>25.49689208214389</v>
+        <v>25.53759645818334</v>
       </c>
       <c r="G4" t="n">
-        <v>20.32159095781728</v>
+        <v>22.70662584104528</v>
       </c>
       <c r="H4" t="n">
-        <v>25.08626257521509</v>
+        <v>25.0918863595157</v>
       </c>
       <c r="I4" t="n">
-        <v>24.29709059506843</v>
+        <v>24.2909054078498</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.74379053495597</v>
+        <v>19.72051751290509</v>
       </c>
       <c r="C5" t="n">
-        <v>25.51796476585582</v>
+        <v>25.52498586330119</v>
       </c>
       <c r="D5" t="n">
-        <v>25.49546145921099</v>
+        <v>25.49689208214389</v>
       </c>
       <c r="E5" t="n">
-        <v>25.81471072004349</v>
+        <v>25.83463844446063</v>
       </c>
       <c r="F5" t="n">
-        <v>25.49546145921099</v>
+        <v>25.49689208214389</v>
       </c>
       <c r="G5" t="n">
-        <v>20.34314443590061</v>
+        <v>22.67820580388763</v>
       </c>
       <c r="H5" t="n">
-        <v>25.05167107214245</v>
+        <v>25.08626257521509</v>
       </c>
       <c r="I5" t="n">
-        <v>24.27724381829357</v>
+        <v>24.29709059506843</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.74566073564925</v>
+        <v>19.74379053495597</v>
       </c>
       <c r="C6" t="n">
-        <v>25.5438280833004</v>
+        <v>25.51796476585582</v>
       </c>
       <c r="D6" t="n">
-        <v>25.50500718987116</v>
+        <v>25.49546145921099</v>
       </c>
       <c r="E6" t="n">
-        <v>25.83958085144447</v>
+        <v>25.81471072004349</v>
       </c>
       <c r="F6" t="n">
-        <v>25.50500718987116</v>
+        <v>25.49546145921099</v>
       </c>
       <c r="G6" t="n">
-        <v>20.34690471960726</v>
+        <v>22.69643960780311</v>
       </c>
       <c r="H6" t="n">
-        <v>25.07339840203907</v>
+        <v>25.05167107214245</v>
       </c>
       <c r="I6" t="n">
-        <v>24.28127687944857</v>
+        <v>24.27724381829357</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.73140618631875</v>
+        <v>19.74566073564925</v>
       </c>
       <c r="C7" t="n">
-        <v>25.53419689283722</v>
+        <v>25.5438280833004</v>
       </c>
       <c r="D7" t="n">
-        <v>25.50114110126629</v>
+        <v>25.50500718987116</v>
       </c>
       <c r="E7" t="n">
-        <v>25.83370728239402</v>
+        <v>25.83958085144447</v>
       </c>
       <c r="F7" t="n">
-        <v>25.50114110126629</v>
+        <v>25.50500718987116</v>
       </c>
       <c r="G7" t="n">
-        <v>20.32852063535706</v>
+        <v>22.70216773273424</v>
       </c>
       <c r="H7" t="n">
-        <v>25.08198151545008</v>
+        <v>25.07339840203907</v>
       </c>
       <c r="I7" t="n">
-        <v>24.30310306730529</v>
+        <v>24.28127687944857</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.72768394373398</v>
+        <v>19.73140618631875</v>
       </c>
       <c r="C8" t="n">
-        <v>25.54137988801405</v>
+        <v>25.53419689283722</v>
       </c>
       <c r="D8" t="n">
-        <v>25.51894048802516</v>
+        <v>25.50114110126629</v>
       </c>
       <c r="E8" t="n">
-        <v>25.83862169222473</v>
+        <v>25.83370728239402</v>
       </c>
       <c r="F8" t="n">
-        <v>25.51894048802516</v>
+        <v>25.50114110126629</v>
       </c>
       <c r="G8" t="n">
-        <v>20.3304191753654</v>
+        <v>22.72176782444904</v>
       </c>
       <c r="H8" t="n">
-        <v>25.09057151668794</v>
+        <v>25.08198151545008</v>
       </c>
       <c r="I8" t="n">
-        <v>24.28054844875673</v>
+        <v>24.30310306730529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.72374773196849</v>
+        <v>19.72768394373398</v>
       </c>
       <c r="C9" t="n">
-        <v>25.50920239343376</v>
+        <v>25.54137988801405</v>
       </c>
       <c r="D9" t="n">
-        <v>25.51605369838656</v>
+        <v>25.51894048802516</v>
       </c>
       <c r="E9" t="n">
-        <v>25.83106401011076</v>
+        <v>25.83862169222473</v>
       </c>
       <c r="F9" t="n">
-        <v>25.51605369838656</v>
+        <v>25.51894048802516</v>
       </c>
       <c r="G9" t="n">
-        <v>20.33176468709321</v>
+        <v>22.69567996849417</v>
       </c>
       <c r="H9" t="n">
-        <v>25.07413790502166</v>
+        <v>25.09057151668794</v>
       </c>
       <c r="I9" t="n">
-        <v>24.29601607956247</v>
+        <v>24.28054844875673</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.71064740330682</v>
+        <v>19.72374773196849</v>
       </c>
       <c r="C10" t="n">
-        <v>25.50070161545822</v>
+        <v>25.50920239343376</v>
       </c>
       <c r="D10" t="n">
-        <v>25.48781198276749</v>
+        <v>25.51605369838656</v>
       </c>
       <c r="E10" t="n">
-        <v>25.80710052717919</v>
+        <v>25.83106401011076</v>
       </c>
       <c r="F10" t="n">
-        <v>25.48783229084815</v>
+        <v>25.51605369838656</v>
       </c>
       <c r="G10" t="n">
-        <v>20.31407854412477</v>
+        <v>22.70780089415263</v>
       </c>
       <c r="H10" t="n">
-        <v>25.05608468275296</v>
+        <v>25.07413790502166</v>
       </c>
       <c r="I10" t="n">
-        <v>24.26699705167706</v>
+        <v>24.29601607956247</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.71064740330682</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25.50070161545822</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25.48781198276749</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25.80710052717919</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25.48783229084815</v>
+      </c>
+      <c r="G11" t="n">
+        <v>22.67784079022006</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25.05608468275296</v>
+      </c>
+      <c r="I11" t="n">
+        <v>24.26699705167706</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>19.75112047036913</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>25.55554346043775</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>25.52670526855933</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>25.85046972128426</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>25.52672669072724</v>
       </c>
-      <c r="G11" t="n">
-        <v>20.35458970311945</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>22.71412114555122</v>
+      </c>
+      <c r="H12" t="n">
         <v>25.09272692445177</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>24.29914184102936</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.73324904962465</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25.52872585422619</v>
-      </c>
-      <c r="D12" t="n">
-        <v>25.50843743865263</v>
-      </c>
-      <c r="E12" t="n">
-        <v>25.83340588640674</v>
-      </c>
-      <c r="F12" t="n">
-        <v>25.50844161167748</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20.33516854495408</v>
-      </c>
-      <c r="H12" t="n">
-        <v>25.0779299709043</v>
-      </c>
-      <c r="I12" t="n">
-        <v>24.28795236920935</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5.795476804601542</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5.775188389027978</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.100156836782091</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5.775192562052833</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.6019194953294331</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5.344680921279647</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.5547033195847</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7828591758429156</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9222274948382124</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9234647999592736</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9268913420852225</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9234647999592736</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8547538259957371</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9024100470224821</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8773491835674847</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7836980281883148</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9231325013426789</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9240405827203212</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9280746040819828</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9240405827203212</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8548834767614446</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9031510729381078</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.877809323900278</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7826274075242099</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9226788262473283</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9231666614586536</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.927343906096612</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9231666614586536</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8539661419792579</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9027778140236012</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.877965395130717</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7833786675604947</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9223024976988994</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9232120752231665</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9270001374026074</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9232120752231665</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8542953962883429</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9020452892464514</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8771663548803009</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7834265987962622</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.923028190900009</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9235450930564919</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9273416697306628</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9235450930564919</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.8544176492872316</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.902596894108572</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8770482492918181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7834005340881115</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9226700375101419</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9237322461844217</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9274853771381594</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9237322461844217</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8553318675476337</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9027969610047043</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.8785971077407901</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.783050335253853</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9230713684485224</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.923727282593934</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9274434090446165</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.923727282593934</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8548161339851088</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9026558497151436</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8777127025186102</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7831782948615817</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9227208199418774</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9243334777400217</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9277646634016922</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9243334777400217</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8555554977554918</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9032123711517698</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8786245002257919</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7821318557821977</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9224743040295871</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9236758156680782</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9270813607060968</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9236761576299389</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8539005135497604</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9021887974960939</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8768996341144737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7837319479056042</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9229337896983419</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9239398912179978</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9273499267516191</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9239401690439729</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8548409769071523</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9027271244840958</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8777536609333351</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,400 +1865,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>14.67819158410424</v>
-      </c>
-      <c r="C2" t="n">
-        <v>22.07654295492455</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.84216002966418</v>
-      </c>
-      <c r="E2" t="n">
-        <v>21.88890368014144</v>
-      </c>
-      <c r="F2" t="n">
-        <v>21.84216002966418</v>
-      </c>
-      <c r="G2" t="n">
-        <v>16.69939790380464</v>
-      </c>
-      <c r="H2" t="n">
-        <v>20.14182173884474</v>
-      </c>
-      <c r="I2" t="n">
-        <v>18.90197496816027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.67184926604159</v>
+        <v>14.67819158410424</v>
       </c>
       <c r="C3" t="n">
-        <v>22.10524712792459</v>
+        <v>22.07654295492455</v>
       </c>
       <c r="D3" t="n">
-        <v>21.86524723744862</v>
+        <v>21.84216002966418</v>
       </c>
       <c r="E3" t="n">
-        <v>21.91826683182462</v>
+        <v>21.88890368014144</v>
       </c>
       <c r="F3" t="n">
-        <v>21.86524723744862</v>
+        <v>21.84216002966418</v>
       </c>
       <c r="G3" t="n">
-        <v>16.68862915696433</v>
+        <v>18.59032647469353</v>
       </c>
       <c r="H3" t="n">
-        <v>20.15149388658961</v>
+        <v>20.14182173884474</v>
       </c>
       <c r="I3" t="n">
-        <v>18.92361694485958</v>
+        <v>18.90197496816027</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.66405295758777</v>
+        <v>14.67184926604159</v>
       </c>
       <c r="C4" t="n">
-        <v>22.10112668548921</v>
+        <v>22.10524712792459</v>
       </c>
       <c r="D4" t="n">
-        <v>21.83482137616107</v>
+        <v>21.86524723744862</v>
       </c>
       <c r="E4" t="n">
-        <v>21.91571677974063</v>
+        <v>21.91826683182462</v>
       </c>
       <c r="F4" t="n">
-        <v>21.83482137616107</v>
+        <v>21.86524723744862</v>
       </c>
       <c r="G4" t="n">
-        <v>16.67924567932428</v>
+        <v>18.59341727611133</v>
       </c>
       <c r="H4" t="n">
-        <v>20.16994143319047</v>
+        <v>20.15149388658961</v>
       </c>
       <c r="I4" t="n">
-        <v>18.92563882650008</v>
+        <v>18.92361694485958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.67252334041433</v>
+        <v>14.66405295758777</v>
       </c>
       <c r="C5" t="n">
-        <v>22.12472850848208</v>
+        <v>22.10112668548921</v>
       </c>
       <c r="D5" t="n">
-        <v>21.88692883554885</v>
+        <v>21.83482137616107</v>
       </c>
       <c r="E5" t="n">
-        <v>21.92748189040091</v>
+        <v>21.91571677974063</v>
       </c>
       <c r="F5" t="n">
-        <v>21.88693041342735</v>
+        <v>21.83482137616107</v>
       </c>
       <c r="G5" t="n">
-        <v>16.69544527276624</v>
+        <v>18.60216503304515</v>
       </c>
       <c r="H5" t="n">
-        <v>20.19408792556247</v>
+        <v>20.16994143319047</v>
       </c>
       <c r="I5" t="n">
-        <v>18.94025283765949</v>
+        <v>18.92563882650008</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.6783063978622</v>
+        <v>14.67252334041433</v>
       </c>
       <c r="C6" t="n">
-        <v>22.12148751990666</v>
+        <v>22.12472850848208</v>
       </c>
       <c r="D6" t="n">
-        <v>21.87737693550955</v>
+        <v>21.88692883554885</v>
       </c>
       <c r="E6" t="n">
-        <v>21.93574121582559</v>
+        <v>21.92748189040091</v>
       </c>
       <c r="F6" t="n">
-        <v>21.87737693550955</v>
+        <v>21.88693041342735</v>
       </c>
       <c r="G6" t="n">
-        <v>16.69997225389139</v>
+        <v>18.61952845925053</v>
       </c>
       <c r="H6" t="n">
-        <v>20.1678816525956</v>
+        <v>20.19408792556247</v>
       </c>
       <c r="I6" t="n">
-        <v>18.94308833477993</v>
+        <v>18.94025283765949</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.66222145325498</v>
+        <v>14.6783063978622</v>
       </c>
       <c r="C7" t="n">
-        <v>22.10834710168542</v>
+        <v>22.12148751990666</v>
       </c>
       <c r="D7" t="n">
-        <v>21.84345191082426</v>
+        <v>21.87737693550955</v>
       </c>
       <c r="E7" t="n">
-        <v>21.92019633864242</v>
+        <v>21.93574121582559</v>
       </c>
       <c r="F7" t="n">
-        <v>21.84345191082426</v>
+        <v>21.87737693550955</v>
       </c>
       <c r="G7" t="n">
-        <v>16.68338453706259</v>
+        <v>18.62325227611998</v>
       </c>
       <c r="H7" t="n">
-        <v>20.17787938655982</v>
+        <v>20.1678816525956</v>
       </c>
       <c r="I7" t="n">
-        <v>18.93516110646111</v>
+        <v>18.94308833477993</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.67102942094896</v>
+        <v>14.66222145325498</v>
       </c>
       <c r="C8" t="n">
-        <v>22.0761475575192</v>
+        <v>22.10834710168542</v>
       </c>
       <c r="D8" t="n">
-        <v>21.79845942121988</v>
+        <v>21.84345191082426</v>
       </c>
       <c r="E8" t="n">
-        <v>21.88487824591189</v>
+        <v>21.92019633864242</v>
       </c>
       <c r="F8" t="n">
-        <v>21.79845942121988</v>
+        <v>21.84345191082426</v>
       </c>
       <c r="G8" t="n">
-        <v>16.68906973973178</v>
+        <v>18.61816600506405</v>
       </c>
       <c r="H8" t="n">
-        <v>20.15681267141502</v>
+        <v>20.17787938655982</v>
       </c>
       <c r="I8" t="n">
-        <v>18.9255911229658</v>
+        <v>18.93516110646111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.68480209579522</v>
+        <v>14.67102942094896</v>
       </c>
       <c r="C9" t="n">
-        <v>22.10602961130465</v>
+        <v>22.0761475575192</v>
       </c>
       <c r="D9" t="n">
-        <v>21.84927033606525</v>
+        <v>21.79845942121988</v>
       </c>
       <c r="E9" t="n">
-        <v>21.91247662802011</v>
+        <v>21.88487824591189</v>
       </c>
       <c r="F9" t="n">
-        <v>21.84926923775849</v>
+        <v>21.79845942121988</v>
       </c>
       <c r="G9" t="n">
-        <v>16.69695022279328</v>
+        <v>18.59800811071609</v>
       </c>
       <c r="H9" t="n">
-        <v>20.14666221504719</v>
+        <v>20.15681267141502</v>
       </c>
       <c r="I9" t="n">
-        <v>18.91431139748023</v>
+        <v>18.9255911229658</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.67869558954255</v>
+        <v>14.68480209579522</v>
       </c>
       <c r="C10" t="n">
-        <v>22.08926030053484</v>
+        <v>22.10602961130465</v>
       </c>
       <c r="D10" t="n">
-        <v>21.82721455644902</v>
+        <v>21.84927033606525</v>
       </c>
       <c r="E10" t="n">
-        <v>21.888817429206</v>
+        <v>21.91247662802011</v>
       </c>
       <c r="F10" t="n">
-        <v>21.82721455644902</v>
+        <v>21.84926923775849</v>
       </c>
       <c r="G10" t="n">
-        <v>16.69604614576486</v>
+        <v>18.59422151105316</v>
       </c>
       <c r="H10" t="n">
-        <v>20.15284212539778</v>
+        <v>20.14666221504719</v>
       </c>
       <c r="I10" t="n">
-        <v>18.92684664744779</v>
+        <v>18.91431139748023</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.67869558954255</v>
+      </c>
+      <c r="C11" t="n">
+        <v>22.08926030053484</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21.82721455644902</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21.888817429206</v>
+      </c>
+      <c r="F11" t="n">
+        <v>21.82721455644902</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18.61126753875384</v>
+      </c>
+      <c r="H11" t="n">
+        <v>20.15284212539778</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18.92684664744779</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>14.69907134584581</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>22.10964909349963</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>21.84690685705156</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>21.90315134982367</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>21.84690685705156</v>
       </c>
-      <c r="G11" t="n">
-        <v>16.72092912371458</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>18.62680557974521</v>
+      </c>
+      <c r="H12" t="n">
         <v>20.17954868207924</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>18.94961824144207</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.67607434513977</v>
-      </c>
-      <c r="C12" t="n">
-        <v>22.10185664612708</v>
-      </c>
-      <c r="D12" t="n">
-        <v>21.84718374959422</v>
-      </c>
-      <c r="E12" t="n">
-        <v>21.90956303895373</v>
-      </c>
-      <c r="F12" t="n">
-        <v>21.8471837975514</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16.6949070035818</v>
-      </c>
-      <c r="H12" t="n">
-        <v>20.16389717172819</v>
-      </c>
-      <c r="I12" t="n">
-        <v>18.92861004277563</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7.425782300987315</v>
-      </c>
-      <c r="D13" t="n">
-        <v>7.171109404454455</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.23348869381396</v>
-      </c>
-      <c r="F13" t="n">
-        <v>7.171109452411631</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.01883265844203</v>
-      </c>
-      <c r="H13" t="n">
-        <v>5.487822826588427</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.252535697635867</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5410767170382194</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8153087670456282</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7963402656651375</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.803356388247647</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7963402656651375</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6349839119164327</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.6910587104692193</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6013200666289212</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5416022253150795</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.817513050101585</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7994603116650996</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8056103544948434</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7994603116650996</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6349493866703748</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.6922807454202045</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.60376836079935</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5401084999771677</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8158977082053902</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7991715574885484</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8043370337099174</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7991715574885484</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6353600342926802</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6920094945914796</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6035599967876211</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5417153022528098</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8176549585982074</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7992598705604204</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8051915716974923</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7992599553491683</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.6378322573143217</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6947572190469375</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6056106786426564</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5420676112536631</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8181487079281893</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7997614479934877</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8067102795213587</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7997614479934877</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.6381374020445281</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6935994488130898</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6058411290109464</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5406776921016228</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8168031883813088</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7991628948875612</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8048759278189066</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7991628948875612</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6372660230740927</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6931384372090361</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6047886694340223</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5410023203052365</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8155311303006637</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7968806635581194</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8029112240489494</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7968806635581194</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.635358472265141</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6917997582967829</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6034529338339379</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5423780479133713</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8180017768523772</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8002431985753874</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8056609839552681</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8002436021269436</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.6357677252378215</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.6923529508547622</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6039672393251786</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5415169132502717</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8165585330066665</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7998982755599731</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8041240893618223</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7998982755599731</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.636854472990722</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6923476035831597</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6038966932560168</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5425077194651574</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8162698353752721</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7980602599098899</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8032418874362871</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7980602599098899</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.6369492153456032</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.6921543997031798</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6048533878442208</v>
       </c>
     </row>
   </sheetData>
